--- a/excel/officereport.xlsx
+++ b/excel/officereport.xlsx
@@ -993,7 +993,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="33">
-        <v>1505.3238</v>
+        <v>1507.8293</v>
       </c>
       <c r="F3" s="9" t="e">
         <f>E3/D3</f>
@@ -1049,7 +1049,7 @@
         <v>5000</v>
       </c>
       <c r="E5" s="33">
-        <v>4631.6596</v>
+        <v>4640.2204</v>
       </c>
       <c r="F5" s="12" t="e">
         <f t="shared" si="0"/>
@@ -1340,7 +1340,7 @@
         <v>2800</v>
       </c>
       <c r="E16" s="33">
-        <v>1213.708</v>
+        <v>1282.245</v>
       </c>
       <c r="F16" s="12" t="e">
         <f t="shared" ref="F16:F32" si="3">E16/D16</f>
@@ -1367,7 +1367,7 @@
         <v>2000</v>
       </c>
       <c r="E17" s="33">
-        <v>393.5462</v>
+        <v>394.3462</v>
       </c>
       <c r="F17" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1376,7 +1376,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="33">
-        <v>283.3623</v>
+        <v>284.0623</v>
       </c>
       <c r="I17" s="13" t="e">
         <f t="shared" si="4"/>
@@ -1450,7 +1450,7 @@
         <v>4300</v>
       </c>
       <c r="E20" s="33">
-        <v>3631.1734</v>
+        <v>3669.8482</v>
       </c>
       <c r="F20" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1477,7 +1477,7 @@
         <v>2700</v>
       </c>
       <c r="E21" s="33">
-        <v>1780.994</v>
+        <v>1790.2879</v>
       </c>
       <c r="F21" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1504,7 +1504,7 @@
         <v>2800</v>
       </c>
       <c r="E22" s="33">
-        <v>1640.1398</v>
+        <v>1641.1889</v>
       </c>
       <c r="F22" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1587,7 +1587,7 @@
         <v>8000</v>
       </c>
       <c r="E25" s="33">
-        <v>2644.8062</v>
+        <v>2644.7193</v>
       </c>
       <c r="F25" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1643,7 +1643,7 @@
         <v>5500</v>
       </c>
       <c r="E27" s="33">
-        <v>3104.4589</v>
+        <v>3123.6068</v>
       </c>
       <c r="F27" s="12" t="e">
         <f t="shared" si="3"/>
@@ -1726,7 +1726,7 @@
         <v>4800</v>
       </c>
       <c r="E30" s="33">
-        <v>2237.0575</v>
+        <v>2290.5806</v>
       </c>
       <c r="F30" s="12" t="e">
         <f>E30/D30</f>
@@ -1807,7 +1807,7 @@
         <v>5000</v>
       </c>
       <c r="E33" s="33">
-        <v>2648.8966</v>
+        <v>2654.1054</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>(E33+E34)/D33</f>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="33">
-        <v>932.7018</v>
+        <v>919.8211</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
@@ -1936,7 +1936,7 @@
         <v>2700</v>
       </c>
       <c r="E38" s="33">
-        <v>1172.7093</v>
+        <v>1206.9523</v>
       </c>
       <c r="F38" s="12" t="e">
         <f t="shared" si="6"/>
@@ -2071,7 +2071,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33">
-        <v>1946.2602</v>
+        <v>1950.4117</v>
       </c>
       <c r="F43" s="12" t="e">
         <f t="shared" si="6"/>
@@ -2154,7 +2154,7 @@
         <v>6000</v>
       </c>
       <c r="E46" s="33">
-        <v>2491.0244</v>
+        <v>2490.696</v>
       </c>
       <c r="F46" s="12" t="e">
         <f t="shared" si="6"/>

--- a/excel/officereport.xlsx
+++ b/excel/officereport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">2017年任务指标 单位：万元</t>
+    <t xml:space="preserve">2018年任务指标 单位：万元</t>
   </si>
   <si>
     <t xml:space="preserve">区域</t>
@@ -30,22 +30,22 @@
     <t xml:space="preserve">代码</t>
   </si>
   <si>
-    <t xml:space="preserve">2017年订单任务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年已完成订货</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年订单任务完成比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年出货任务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年已完成出货</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年出货任务完成比例</t>
+    <t xml:space="preserve">2018年订单任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年已完成订货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年订单任务完成比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年出货任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年已完成出货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年出货任务完成比例</t>
   </si>
   <si>
     <t xml:space="preserve">工业项目组</t>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -989,21 +989,15 @@
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
-        <v>2000</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="33">
-        <v>1507.8293</v>
+        <v>208.0511</v>
       </c>
       <c r="F3" s="9" t="e">
         <f>E3/D3</f>
       </c>
-      <c r="G3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1496.2806</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="10" t="e">
         <f>H3/G3</f>
       </c>
@@ -1018,19 +1012,13 @@
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
-        <v>500</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="33"/>
       <c r="F4" s="9" t="e">
         <f t="shared" ref="F4:F12" si="0">E4/D4</f>
       </c>
-      <c r="G4" s="7">
-        <v>500</v>
-      </c>
-      <c r="H4" s="33">
-        <v>3.8738</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="10" t="e">
         <f t="shared" ref="I4:I12" si="1">H4/G4</f>
       </c>
@@ -1045,21 +1033,15 @@
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11">
-        <v>5000</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="33">
-        <v>4640.2204</v>
+        <v>20.599</v>
       </c>
       <c r="F5" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G5" s="11">
-        <v>4500</v>
-      </c>
-      <c r="H5" s="33">
-        <v>3002.227</v>
-      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1072,21 +1054,15 @@
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11">
-        <v>3000</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="33">
-        <v>1797.4468</v>
+        <v>7.0309</v>
       </c>
       <c r="F6" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G6" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="33">
-        <v>1305.1599</v>
-      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1099,21 +1075,15 @@
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
-        <v>1500</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="33">
-        <v>1981.9082</v>
+        <v>75.9148</v>
       </c>
       <c r="F7" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G7" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="33">
-        <v>1656.7645</v>
-      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1126,21 +1096,15 @@
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11">
-        <v>3500</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="33">
-        <v>1297.1619</v>
+        <v>26.64</v>
       </c>
       <c r="F8" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G8" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H8" s="33">
-        <v>3507.1417</v>
-      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1153,21 +1117,15 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11">
-        <v>800</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="33">
-        <v>596.4685</v>
+        <v>471.3426</v>
       </c>
       <c r="F9" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G9" s="11">
-        <v>500</v>
-      </c>
-      <c r="H9" s="33">
-        <v>597.7108</v>
-      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1180,18 +1138,14 @@
       <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
-        <f>D5+D6+D7+D8+D9</f>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="8" t="e">
         <f>E5+E6+E7+E8+E9</f>
       </c>
       <c r="F10" s="9" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" ref="G10:H10" si="2">SUM(G5:G9)</f>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="8" t="e">
         <f>H5+H6+H7+H8+H9</f>
       </c>
@@ -1209,21 +1163,15 @@
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11">
-        <v>5200</v>
-      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="33">
-        <v>2562.264</v>
+        <v>219.4856</v>
       </c>
       <c r="F11" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G11" s="17">
-        <v>4700</v>
-      </c>
-      <c r="H11" s="33">
-        <v>3084.1207</v>
-      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1236,21 +1184,15 @@
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11">
-        <v>3300</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="33">
-        <v>1710.5498</v>
+        <v>20.1386</v>
       </c>
       <c r="F12" s="12" t="e">
         <f t="shared" si="0"/>
       </c>
-      <c r="G12" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H12" s="33">
-        <v>1582.0693</v>
-      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="13" t="e">
         <f t="shared" si="1"/>
       </c>
@@ -1263,21 +1205,15 @@
       <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11">
-        <v>2500</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="33">
-        <v>1734.4175</v>
+        <v>262.98</v>
       </c>
       <c r="F13" s="12" t="e">
         <f>(E13+E14)/D13</f>
       </c>
-      <c r="G13" s="17">
-        <v>2300</v>
-      </c>
-      <c r="H13" s="33">
-        <v>1776.129</v>
-      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="13" t="e">
         <f>(H13+H14)/G13</f>
       </c>
@@ -1289,14 +1225,10 @@
         <v>36</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="33">
-        <v>503.0403</v>
-      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="12"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="33">
-        <v>536.7848</v>
-      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1" ht="19.5" customHeight="1">
@@ -1307,18 +1239,14 @@
       <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="19">
-        <f>D11+D12+D13+D14</f>
-      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="8" t="e">
         <f>E11+E12+E13+E14</f>
       </c>
       <c r="F15" s="9" t="e">
         <f>E15/D15</f>
       </c>
-      <c r="G15" s="7">
-        <f>SUM(G11:G14)</f>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="8" t="e">
         <f>H11+H12+H13+H14</f>
       </c>
@@ -1336,23 +1264,17 @@
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11">
-        <v>2800</v>
-      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="33">
-        <v>1282.245</v>
+        <v>275.4806</v>
       </c>
       <c r="F16" s="12" t="e">
-        <f t="shared" ref="F16:F32" si="3">E16/D16</f>
-      </c>
-      <c r="G16" s="11">
-        <v>2800</v>
-      </c>
-      <c r="H16" s="33">
-        <v>1955.3738</v>
-      </c>
+        <f t="shared" ref="F16:F32" si="2">E16/D16</f>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="13" t="e">
-        <f t="shared" ref="I16:I32" si="4">H16/G16</f>
+        <f t="shared" ref="I16:I32" si="3">H16/G16</f>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1">
@@ -1363,23 +1285,15 @@
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="33">
-        <v>394.3462</v>
-      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G17" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="33">
-        <v>284.0623</v>
-      </c>
-      <c r="I17" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1">
@@ -1390,23 +1304,15 @@
       <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="11">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="33">
-        <v>860.3213</v>
-      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G18" s="11">
-        <v>1200</v>
-      </c>
-      <c r="H18" s="33">
-        <v>361.2023</v>
-      </c>
-      <c r="I18" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="19" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -1417,23 +1323,19 @@
       <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19">
-        <f>SUM(D16:D18)</f>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="8">
         <f>SUM(E16:E18)</f>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="3"/>
-      </c>
-      <c r="G19" s="7">
-        <f>SUM(G16:G18)</f>
-      </c>
+      <c r="F19" s="9" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f>SUM(H16:H18)</f>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="4"/>
+      <c r="I19" s="10" t="e">
+        <f t="shared" si="3"/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
@@ -1446,23 +1348,17 @@
       <c r="C20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="11">
-        <v>4300</v>
-      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="33">
-        <v>3669.8482</v>
+        <v>973.0773</v>
       </c>
       <c r="F20" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G20" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H20" s="33">
-        <v>2322.0094</v>
-      </c>
-      <c r="I20" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1">
@@ -1473,23 +1369,17 @@
       <c r="C21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="11">
-        <v>2700</v>
-      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="33">
-        <v>1790.2879</v>
+        <v>56.9495</v>
       </c>
       <c r="F21" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G21" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H21" s="33">
-        <v>2241.7579</v>
-      </c>
-      <c r="I21" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1">
@@ -1500,23 +1390,17 @@
       <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="11">
-        <v>2800</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="33">
-        <v>1641.1889</v>
+        <v>83.1585</v>
       </c>
       <c r="F22" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G22" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H22" s="33">
-        <v>1957.8383</v>
-      </c>
-      <c r="I22" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
@@ -1527,23 +1411,17 @@
       <c r="C23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="11">
-        <v>2200</v>
-      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="33">
-        <v>840.0341</v>
+        <v>2.6578</v>
       </c>
       <c r="F23" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="33">
-        <v>1025.5182</v>
-      </c>
-      <c r="I23" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -1554,23 +1432,19 @@
       <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="19">
-        <f>SUM(D20:D23)</f>
-      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="8">
         <f>SUM(E20:E23)</f>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="3"/>
-      </c>
-      <c r="G24" s="7">
-        <f>SUM(G20:G23)</f>
-      </c>
+      <c r="F24" s="9" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="8">
         <f>SUM(H20:H23)</f>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="4"/>
+      <c r="I24" s="10" t="e">
+        <f t="shared" si="3"/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1">
@@ -1583,23 +1457,17 @@
       <c r="C25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="11">
-        <v>8000</v>
-      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="33">
-        <v>2644.7193</v>
+        <v>30.3698</v>
       </c>
       <c r="F25" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G25" s="11">
-        <v>6000</v>
-      </c>
-      <c r="H25" s="33">
-        <v>1915.7281</v>
-      </c>
-      <c r="I25" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" ht="24" customHeight="1">
@@ -1610,23 +1478,19 @@
       <c r="C26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="19">
-        <f>SUM(D25)</f>
-      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="8">
         <f>SUM(E25)</f>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
-      </c>
-      <c r="G26" s="7">
-        <f>SUM(G25)</f>
-      </c>
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="8">
         <f>SUM(H25)</f>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="4"/>
+      <c r="I26" s="10" t="e">
+        <f t="shared" si="3"/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1">
@@ -1639,23 +1503,17 @@
       <c r="C27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="11">
-        <v>5500</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="33">
-        <v>3123.6068</v>
+        <v>120.8391</v>
       </c>
       <c r="F27" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G27" s="11">
-        <v>4800</v>
-      </c>
-      <c r="H27" s="33">
-        <v>1256.2259</v>
-      </c>
-      <c r="I27" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1">
@@ -1666,23 +1524,15 @@
       <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="11">
-        <v>3500</v>
-      </c>
-      <c r="E28" s="33">
-        <v>1871.3117</v>
-      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G28" s="11">
-        <v>2700</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1849.3063</v>
-      </c>
-      <c r="I28" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -1693,23 +1543,19 @@
       <c r="C29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="19">
-        <f>SUM(D27:D28)</f>
-      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="8">
         <f>SUM(E27:E28)</f>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
-      </c>
-      <c r="G29" s="7">
-        <f>SUM(G27:G28)</f>
-      </c>
+      <c r="F29" s="9" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="8">
         <f>SUM(H27:H28)</f>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="4"/>
+      <c r="I29" s="10" t="e">
+        <f t="shared" si="3"/>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
@@ -1722,23 +1568,17 @@
       <c r="C30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="11">
-        <v>4800</v>
-      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="33">
-        <v>2290.5806</v>
+        <v>454.6938</v>
       </c>
       <c r="F30" s="12" t="e">
         <f>E30/D30</f>
       </c>
-      <c r="G30" s="11">
-        <v>4800</v>
-      </c>
-      <c r="H30" s="33">
-        <v>1645.2867</v>
-      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.25" customHeight="1">
@@ -1749,23 +1589,17 @@
       <c r="C31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="11">
-        <v>2200</v>
-      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="33">
-        <v>1578.3692</v>
+        <v>140.9957</v>
       </c>
       <c r="F31" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G31" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H31" s="33">
-        <v>701.2601</v>
-      </c>
-      <c r="I31" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.25" customHeight="1">
@@ -1776,23 +1610,17 @@
       <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="11">
-        <v>2800</v>
-      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="33">
-        <v>1005.288</v>
+        <v>1.8755</v>
       </c>
       <c r="F32" s="12" t="e">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="13" t="e">
         <f t="shared" si="3"/>
-      </c>
-      <c r="G32" s="11">
-        <v>2600</v>
-      </c>
-      <c r="H32" s="33">
-        <v>782.3975</v>
-      </c>
-      <c r="I32" s="13" t="e">
-        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20.25" customHeight="1">
@@ -1803,21 +1631,15 @@
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="11">
-        <v>5000</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="33">
-        <v>2654.1054</v>
+        <v>212.8155</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>(E33+E34)/D33</f>
       </c>
-      <c r="G33" s="11">
-        <v>4500</v>
-      </c>
-      <c r="H33" s="33">
-        <v>1835.6568</v>
-      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="13" t="e">
         <f>(H33+H34)/G33</f>
       </c>
@@ -1832,13 +1654,11 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="33">
-        <v>919.8211</v>
+        <v>337.2234</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="33">
-        <v>750.7872</v>
-      </c>
+      <c r="H34" s="33"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1">
@@ -1849,21 +1669,15 @@
       <c r="C35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="11">
-        <v>1700</v>
-      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="33">
-        <v>1710.1478</v>
+        <v>533.6085</v>
       </c>
       <c r="F35" s="12" t="e">
         <f>E35/D35</f>
       </c>
-      <c r="G35" s="11">
-        <v>1600</v>
-      </c>
-      <c r="H35" s="33">
-        <v>936.9532</v>
-      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="13" t="e">
         <f>H35/G35</f>
       </c>
@@ -1876,23 +1690,19 @@
       <c r="C36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="19">
-        <f>SUM(D30:D35)</f>
-      </c>
+      <c r="D36" s="19"/>
       <c r="E36" s="8">
         <f>SUM(E30:E35)</f>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="9" t="e">
         <f>E36/D36</f>
       </c>
-      <c r="G36" s="7">
-        <f>SUM(G30:G35)</f>
-      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="8">
         <f>SUM(H30:H35)</f>
       </c>
-      <c r="I36" s="13">
-        <f t="shared" ref="I36:I48" si="5">H36/G36</f>
+      <c r="I36" s="13" t="e">
+        <f t="shared" ref="I36:I48" si="4">H36/G36</f>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1">
@@ -1905,23 +1715,17 @@
       <c r="C37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="11">
-        <v>4500</v>
-      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="33">
-        <v>3380.6879</v>
+        <v>29.5546</v>
       </c>
       <c r="F37" s="12" t="e">
-        <f t="shared" ref="F37:F48" si="6">E37/D37</f>
-      </c>
-      <c r="G37" s="11">
-        <v>4400</v>
-      </c>
-      <c r="H37" s="33">
-        <v>1904.1892</v>
-      </c>
+        <f t="shared" ref="F37:F48" si="5">E37/D37</f>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1">
@@ -1932,23 +1736,17 @@
       <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="11">
-        <v>2700</v>
-      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="33">
-        <v>1206.9523</v>
+        <v>45.4648</v>
       </c>
       <c r="F38" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G38" s="11">
-        <v>2500</v>
-      </c>
-      <c r="H38" s="33">
-        <v>1249.074</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20.25" customHeight="1">
@@ -1959,23 +1757,17 @@
       <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="11">
-        <v>3300</v>
-      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="33">
-        <v>2466.3964</v>
+        <v>20.5199</v>
       </c>
       <c r="F39" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G39" s="11">
-        <v>3100</v>
-      </c>
-      <c r="H39" s="33">
-        <v>1631.6597</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20.25" customHeight="1">
@@ -1986,23 +1778,15 @@
       <c r="C40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="11">
-        <v>2300</v>
-      </c>
-      <c r="E40" s="33">
-        <v>615.3373</v>
-      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G40" s="11">
-        <v>2200</v>
-      </c>
-      <c r="H40" s="33">
-        <v>1094.1954</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1">
@@ -2013,23 +1797,17 @@
       <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="11">
-        <v>2300</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="33">
-        <v>1685.3288</v>
+        <v>0.0519</v>
       </c>
       <c r="F41" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G41" s="11">
-        <v>2300</v>
-      </c>
-      <c r="H41" s="33">
-        <v>1552.7537</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1">
@@ -2040,23 +1818,15 @@
       <c r="C42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="11">
-        <v>2400</v>
-      </c>
-      <c r="E42" s="33">
-        <v>391.8305</v>
-      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G42" s="11">
-        <v>2200</v>
-      </c>
-      <c r="H42" s="33">
-        <v>962.0261</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1">
@@ -2067,23 +1837,17 @@
       <c r="C43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="11">
-        <v>2000</v>
-      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="33">
-        <v>1950.4117</v>
+        <v>9.8865</v>
       </c>
       <c r="F43" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G43" s="11">
-        <v>1800</v>
-      </c>
-      <c r="H43" s="33">
-        <v>476.4806</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -2094,23 +1858,19 @@
       <c r="C44" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="19">
-        <f>SUM(D37:D43)</f>
-      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="8">
         <f>SUM(E37:E43)</f>
       </c>
-      <c r="F44" s="9">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G44" s="7">
-        <f>SUM(G37:G43)</f>
-      </c>
+      <c r="F44" s="9" t="e">
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="8">
         <f>SUM(H37:H43)</f>
       </c>
-      <c r="I44" s="13">
-        <f t="shared" si="5"/>
+      <c r="I44" s="13" t="e">
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20.25" customHeight="1">
@@ -2123,23 +1883,17 @@
       <c r="C45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="11">
-        <v>4000</v>
-      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="33">
-        <v>1948.7734</v>
+        <v>55.7939</v>
       </c>
       <c r="F45" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G45" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H45" s="33">
-        <v>1391.6303</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20.25" customHeight="1">
@@ -2150,23 +1904,17 @@
       <c r="C46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="11">
-        <v>6000</v>
-      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="33">
-        <v>2490.696</v>
+        <v>205.5374</v>
       </c>
       <c r="F46" s="12" t="e">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G46" s="11">
-        <v>7000</v>
-      </c>
-      <c r="H46" s="33">
-        <v>3194.3387</v>
-      </c>
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -2177,23 +1925,19 @@
       <c r="C47" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="19">
-        <f>SUM(D45:D46)</f>
-      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="8">
         <f>SUM(E45:E46)</f>
       </c>
-      <c r="F47" s="9">
-        <f t="shared" si="6"/>
-      </c>
-      <c r="G47" s="7">
-        <f>SUM(G45:G46)</f>
-      </c>
+      <c r="F47" s="9" t="e">
+        <f t="shared" si="5"/>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="8">
         <f>SUM(H45:H46)</f>
       </c>
-      <c r="I47" s="13">
-        <f t="shared" si="5"/>
+      <c r="I47" s="13" t="e">
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="48" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -2211,7 +1955,7 @@
         <f>E47+E44+E36+E29+E26+E24+E19+E15+E10+E4+E3</f>
       </c>
       <c r="F48" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
       </c>
       <c r="G48" s="7">
         <f>G47+G44+G36+G29+G26+G24+G19+G15+G10+G4+G3</f>
@@ -2220,7 +1964,7 @@
         <f>H47+H44+H36+H29+H26+H24+H19+H15+H10+H4+H3</f>
       </c>
       <c r="I48" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
       </c>
     </row>
     <row r="49" spans="3:9" ht="19.5" customHeight="1">
